--- a/DesignerConfigs/Datas/GuidesAct.xlsx
+++ b/DesignerConfigs/Datas/GuidesAct.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -302,57 +302,6 @@
   </si>
   <si>
     <t>26,Center/Map/good_clone_1_3</t>
-  </si>
-  <si>
-    <t>高亮当前累计钱数</t>
-  </si>
-  <si>
-    <t>26,Top/CurMoneyBtn</t>
-  </si>
-  <si>
-    <t>告诉玩家消除所有即可通关</t>
-  </si>
-  <si>
-    <t>引导玩家进入下一关(2关)</t>
-  </si>
-  <si>
-    <t>22,Plane/WithdrawBtn/GuideHandPos</t>
-  </si>
-  <si>
-    <t>22,Plane/WithdrawBtn</t>
-  </si>
-  <si>
-    <t>引导玩家打开兑现界面(2关)</t>
-  </si>
-  <si>
-    <t>26,Top/CurMoneyBtn/GuidePos</t>
-  </si>
-  <si>
-    <t>引导玩家点击兑现按钮(2关)</t>
-  </si>
-  <si>
-    <t>17,Planes/Plane/WithdrawBtn/GuidePos</t>
-  </si>
-  <si>
-    <t>17,Planes/Plane/WithdrawBtn</t>
-  </si>
-  <si>
-    <t>引导玩家点打开兑现信息界面(2关)</t>
-  </si>
-  <si>
-    <t>26,Top/WithdrawalBtn</t>
-  </si>
-  <si>
-    <t>引导玩家进入下一关(3关)</t>
-  </si>
-  <si>
-    <t>引导玩家打开兑现界面(3关)</t>
-  </si>
-  <si>
-    <t>引导玩家点击兑现按钮(3关)</t>
-  </si>
-  <si>
-    <t>引导玩家点打开兑现信息界面(3关)</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1326,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O26" sqref="O26"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1881,18 +1830,11 @@
       <c r="B14">
         <v>10009</v>
       </c>
-      <c r="C14">
-        <v>10010</v>
-      </c>
       <c r="D14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E14">
-        <v>10008</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="b">
         <v>1</v>
       </c>
@@ -1912,366 +1854,84 @@
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" ht="27" spans="2:16">
-      <c r="B15">
-        <v>10010</v>
-      </c>
-      <c r="C15">
-        <v>10011</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>10022</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="15" spans="4:16">
+      <c r="D15" s="5"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" ht="27" spans="2:16">
-      <c r="B16">
-        <v>10011</v>
-      </c>
-      <c r="C16">
-        <v>10012</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>10075</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="16" spans="4:16">
+      <c r="D16" s="5"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" ht="27" spans="2:16">
-      <c r="B17">
-        <v>10012</v>
-      </c>
-      <c r="C17">
-        <v>10013</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17">
-        <v>10013</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
+    <row r="17" spans="4:16">
+      <c r="D17" s="4"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
+      <c r="L17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" ht="27" spans="2:16">
-      <c r="B18">
-        <v>10013</v>
-      </c>
-      <c r="C18">
-        <v>10014</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>10024</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="18" spans="4:16">
+      <c r="D18" s="5"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" ht="27" spans="2:16">
-      <c r="B19">
-        <v>10014</v>
-      </c>
-      <c r="C19">
-        <v>10015</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19">
-        <v>10013</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
+    <row r="19" spans="4:16">
+      <c r="D19" s="5"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="L19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" ht="40.5" spans="2:16">
-      <c r="B20">
-        <v>10015</v>
-      </c>
-      <c r="C20">
-        <v>10016</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>10044</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="20" spans="4:16">
+      <c r="D20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" ht="27" spans="2:16">
-      <c r="B21">
-        <v>10016</v>
-      </c>
-      <c r="C21">
-        <v>10017</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21">
-        <v>10017</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
+    <row r="21" spans="4:16">
+      <c r="D21" s="6"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
+      <c r="L21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" ht="27" spans="2:16">
-      <c r="B22">
-        <v>10017</v>
-      </c>
-      <c r="C22">
-        <v>10018</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>10024</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="22" spans="4:16">
+      <c r="D22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" ht="27" spans="2:16">
-      <c r="B23">
-        <v>10018</v>
-      </c>
-      <c r="C23">
-        <v>10019</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23">
-        <v>10017</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
+    <row r="23" spans="4:16">
+      <c r="D23" s="4"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="L23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" ht="40.5" spans="2:16">
-      <c r="B24">
-        <v>10019</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>10044</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="24" spans="4:16">
+      <c r="D24" s="5"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/GuidesAct.xlsx
+++ b/DesignerConfigs/Datas/GuidesAct.xlsx
@@ -247,7 +247,7 @@
     <t>26,Center/DiglogGuidePos2</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_3_2</t>
+    <t>26,Center/Map/good_clone_5_1</t>
   </si>
   <si>
     <t>line:0</t>
@@ -256,25 +256,25 @@
     <t>消除组1指引2</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_1_1</t>
+    <t>26,Center/Map/good_clone_3_1</t>
   </si>
   <si>
     <t>消除组2指引1</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_3_4</t>
+    <t>26,Center/Map/good_clone_4_1</t>
   </si>
   <si>
     <t>消除组2指引2</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_1_2</t>
+    <t>26,Center/Map/good_clone_1_3</t>
   </si>
   <si>
     <t>无法消除组1指引1</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_4_3</t>
+    <t>26,Center/Map/good_clone_5_3</t>
   </si>
   <si>
     <t>无法消除组1指引2</t>
@@ -289,19 +289,19 @@
     <t>26,Center/DiglogGuidePos1</t>
   </si>
   <si>
-    <t>line:1|26,Center/Map/good_clone_4_3</t>
+    <t>line:1|26,Center/Map/good_clone_5_3</t>
   </si>
   <si>
     <t>消除组3指引1</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_4_2</t>
+    <t>26,Center/Map/good_clone_5_4</t>
   </si>
   <si>
     <t>消除组3指引2</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_1_3</t>
+    <t>26,Center/Map/good_clone_4_4</t>
   </si>
 </sst>
 </file>
@@ -1327,9 +1327,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1833,8 +1833,6 @@
       <c r="D14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
       <c r="G14" t="b">
         <v>1</v>
       </c>

--- a/DesignerConfigs/Datas/GuidesAct.xlsx
+++ b/DesignerConfigs/Datas/GuidesAct.xlsx
@@ -268,7 +268,7 @@
     <t>消除组2指引2</t>
   </si>
   <si>
-    <t>26,Center/Map/good_clone_1_3</t>
+    <t>26,Center/Map/good_clone_3_3</t>
   </si>
   <si>
     <t>无法消除组1指引1</t>
@@ -1329,7 +1329,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P16" sqref="P16"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/GuidesAct.xlsx
+++ b/DesignerConfigs/Datas/GuidesAct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1327,9 +1327,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1630,6 +1630,9 @@
       <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="E8">
+        <v>10001</v>
+      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>46</v>
       </c>
       <c r="E9">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1697,6 +1700,9 @@
       <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E10">
+        <v>10001</v>
+      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1763,6 +1769,9 @@
       </c>
       <c r="D12" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="E12">
+        <v>10001</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1802,6 +1811,9 @@
       <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="E13">
+        <v>10001</v>
+      </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
@@ -1832,6 +1844,12 @@
       </c>
       <c r="D14" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="E14">
+        <v>10001</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
